--- a/1 - Science Boot Camp/Quiz/SampleInventory.xlsx
+++ b/1 - Science Boot Camp/Quiz/SampleInventory.xlsx
@@ -801,8 +801,8 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -894,7 +894,7 @@
         <v>7.4117647058823533</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
@@ -904,8 +904,8 @@
       <c r="C5" s="14">
         <v>24</v>
       </c>
-      <c r="D5" s="13">
-        <f t="shared" ref="D5:D15" si="0">B5/C5</f>
+      <c r="D5" s="15">
+        <f t="shared" ref="D5:D28" si="0">B5/C5</f>
         <v>2.6875</v>
       </c>
       <c r="E5" s="1"/>
@@ -923,7 +923,7 @@
         <v>7.612903225806452</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
@@ -933,7 +933,7 @@
       <c r="C6" s="14">
         <v>29</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="15">
         <f t="shared" si="0"/>
         <v>2.6999999999999997</v>
       </c>
@@ -952,7 +952,7 @@
         <v>7.132352941176471</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -962,7 +962,7 @@
       <c r="C7" s="14">
         <v>29</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="15">
         <f t="shared" si="0"/>
         <v>2.693103448275862</v>
       </c>
@@ -981,7 +981,7 @@
         <v>7.1923076923076925</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -991,7 +991,7 @@
       <c r="C8" s="14">
         <v>35</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="15">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>7.3469387755102034</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
@@ -1020,7 +1020,7 @@
       <c r="C9" s="14">
         <v>32</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="15">
         <f t="shared" si="0"/>
         <v>2.5656249999999998</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>7.2022471910112351</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="C10" s="14">
         <v>22</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
         <v>2.7954545454545454</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>7.5308641975308648</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C11" s="14">
         <v>20</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="15">
         <f t="shared" si="0"/>
         <v>2.7149999999999999</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>7.0701754385964906</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
@@ -1107,7 +1107,7 @@
       <c r="C12" s="14">
         <v>23</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="15">
         <f t="shared" si="0"/>
         <v>2.5956521739130438</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>7.0727272727272723</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="C13" s="14">
         <v>20</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="15">
         <f t="shared" si="0"/>
         <v>2.71</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>6.9833333333333334</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
@@ -1165,7 +1165,7 @@
       <c r="C14" s="14">
         <v>15</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="15">
         <f t="shared" si="0"/>
         <v>2.5666666666666669</v>
       </c>
@@ -1187,7 +1187,7 @@
       <c r="C15" s="14">
         <v>10</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="15">
         <f t="shared" si="0"/>
         <v>2.8600000000000003</v>
       </c>
@@ -1217,8 +1217,13 @@
       <c r="B17" s="14">
         <v>83</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="14">
+        <v>13</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" si="0"/>
+        <v>6.384615384615385</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="10" t="s">
         <v>41</v>
@@ -1226,8 +1231,13 @@
       <c r="G17" s="14">
         <v>21.3</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="H17" s="14">
+        <v>8</v>
+      </c>
+      <c r="I17" s="19">
+        <f t="shared" ref="I17:I28" si="2">G17/H17</f>
+        <v>2.6625000000000001</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
@@ -1236,8 +1246,13 @@
       <c r="B18" s="14">
         <v>76.3</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="14">
+        <v>10</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" si="0"/>
+        <v>7.63</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="10" t="s">
         <v>42</v>
@@ -1245,8 +1260,13 @@
       <c r="G18" s="14">
         <v>22.8</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
+      <c r="H18" s="14">
+        <v>8</v>
+      </c>
+      <c r="I18" s="19">
+        <f t="shared" si="2"/>
+        <v>2.85</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
@@ -1255,8 +1275,13 @@
       <c r="B19" s="14">
         <v>76.400000000000006</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
+      <c r="C19" s="14">
+        <v>10</v>
+      </c>
+      <c r="D19" s="15">
+        <f t="shared" si="0"/>
+        <v>7.6400000000000006</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="10" t="s">
         <v>43</v>
@@ -1264,8 +1289,13 @@
       <c r="G19" s="14">
         <v>29.1</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
+      <c r="H19" s="14">
+        <v>11</v>
+      </c>
+      <c r="I19" s="19">
+        <f t="shared" si="2"/>
+        <v>2.6454545454545455</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
@@ -1274,8 +1304,13 @@
       <c r="B20" s="14">
         <v>72.5</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="14">
+        <v>9</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" si="0"/>
+        <v>8.0555555555555554</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="10" t="s">
         <v>44</v>
@@ -1283,8 +1318,13 @@
       <c r="G20" s="14">
         <v>25.7</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
+      <c r="H20" s="14">
+        <v>9</v>
+      </c>
+      <c r="I20" s="19">
+        <f t="shared" si="2"/>
+        <v>2.8555555555555556</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
@@ -1293,8 +1333,13 @@
       <c r="B21" s="14">
         <v>70.599999999999994</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="14">
+        <v>8.5</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" si="0"/>
+        <v>8.3058823529411754</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="10" t="s">
         <v>45</v>
@@ -1302,8 +1347,13 @@
       <c r="G21" s="14">
         <v>23.3</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
+      <c r="H21" s="14">
+        <v>9</v>
+      </c>
+      <c r="I21" s="19">
+        <f t="shared" si="2"/>
+        <v>2.588888888888889</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
@@ -1312,8 +1362,13 @@
       <c r="B22" s="14">
         <v>59.8</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
+      <c r="C22" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="D22" s="15">
+        <f t="shared" si="0"/>
+        <v>7.9733333333333327</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="10" t="s">
         <v>46</v>
@@ -1321,8 +1376,13 @@
       <c r="G22" s="14">
         <v>21.5</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="H22" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="I22" s="19">
+        <f t="shared" si="2"/>
+        <v>2.8666666666666667</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
@@ -1331,8 +1391,13 @@
       <c r="B23" s="14">
         <v>55</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
+      <c r="C23" s="14">
+        <v>7</v>
+      </c>
+      <c r="D23" s="15">
+        <f t="shared" si="0"/>
+        <v>7.8571428571428568</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="10" t="s">
         <v>47</v>
@@ -1340,8 +1405,13 @@
       <c r="G23" s="14">
         <v>20</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="H23" s="14">
+        <v>7.3</v>
+      </c>
+      <c r="I23" s="19">
+        <f t="shared" si="2"/>
+        <v>2.7397260273972601</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
@@ -1350,8 +1420,13 @@
       <c r="B24" s="14">
         <v>35.6</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="D24" s="15">
+        <f t="shared" si="0"/>
+        <v>6.4727272727272727</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="10" t="s">
         <v>48</v>
@@ -1359,8 +1434,13 @@
       <c r="G24" s="14">
         <v>16.2</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+      <c r="H24" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="I24" s="19">
+        <f t="shared" si="2"/>
+        <v>2.6129032258064515</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
@@ -1369,8 +1449,13 @@
       <c r="B25" s="14">
         <v>50.3</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
+      <c r="C25" s="14">
+        <v>7</v>
+      </c>
+      <c r="D25" s="15">
+        <f t="shared" si="0"/>
+        <v>7.1857142857142851</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="10" t="s">
         <v>49</v>
@@ -1378,8 +1463,13 @@
       <c r="G25" s="14">
         <v>16.899999999999999</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="H25" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="I25" s="19">
+        <f t="shared" si="2"/>
+        <v>2.6406249999999996</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
@@ -1388,8 +1478,13 @@
       <c r="B26" s="14">
         <v>57.3</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
+      <c r="C26" s="14">
+        <v>8</v>
+      </c>
+      <c r="D26" s="15">
+        <f t="shared" si="0"/>
+        <v>7.1624999999999996</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="10" t="s">
         <v>50</v>
@@ -1397,8 +1492,13 @@
       <c r="G26" s="14">
         <v>14.3</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
+      <c r="H26" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="I26" s="19">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
@@ -1407,8 +1507,13 @@
       <c r="B27" s="14">
         <v>46.3</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
+      <c r="C27" s="14">
+        <v>6</v>
+      </c>
+      <c r="D27" s="15">
+        <f t="shared" si="0"/>
+        <v>7.7166666666666659</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="10" t="s">
         <v>51</v>
@@ -1416,8 +1521,13 @@
       <c r="G27" s="14">
         <v>14.5</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
+      <c r="H27" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="I27" s="19">
+        <f t="shared" si="2"/>
+        <v>2.6363636363636362</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
@@ -1426,8 +1536,13 @@
       <c r="B28" s="14">
         <v>26.4</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="14">
+        <v>4</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="10" t="s">
         <v>52</v>
@@ -1435,8 +1550,13 @@
       <c r="G28" s="14">
         <v>14</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+      <c r="H28" s="14">
+        <v>5.4</v>
+      </c>
+      <c r="I28" s="19">
+        <f t="shared" si="2"/>
+        <v>2.5925925925925926</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
